--- a/md101/Vendedores.xlsx
+++ b/md101/Vendedores.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dchaveza\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DJCA\utec\dev\data\md101\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70AB8D7F-BC6B-46BE-BEBF-D76056537B69}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA755614-732A-4FE3-A0C2-13705ED10807}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="96" windowWidth="23892" windowHeight="14532" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="118">
   <si>
     <t>IdVendedor</t>
   </si>
@@ -64,9 +64,6 @@
     <t>15/05/2019</t>
   </si>
   <si>
-    <t>cvbmcvbmcvb</t>
-  </si>
-  <si>
     <t>Barcelona</t>
   </si>
   <si>
@@ -91,9 +88,6 @@
     <t>15/11/1951</t>
   </si>
   <si>
-    <t>jkkhjkjhkhjk</t>
-  </si>
-  <si>
     <t>Madrid</t>
   </si>
   <si>
@@ -118,9 +112,6 @@
     <t>12/11/1977</t>
   </si>
   <si>
-    <t>jhjhgjhgjhgjg</t>
-  </si>
-  <si>
     <t>Martorell</t>
   </si>
   <si>
@@ -145,9 +136,6 @@
     <t>13/01/1960</t>
   </si>
   <si>
-    <t>dfsdgdfgdfg</t>
-  </si>
-  <si>
     <t>badalona</t>
   </si>
   <si>
@@ -172,9 +160,6 @@
     <t>15/02/1955</t>
   </si>
   <si>
-    <t>ghfghgfh</t>
-  </si>
-  <si>
     <t>23131</t>
   </si>
   <si>
@@ -196,18 +181,12 @@
     <t>12/11/1970</t>
   </si>
   <si>
-    <t>hfghfghfghfg</t>
-  </si>
-  <si>
     <t>malaga</t>
   </si>
   <si>
     <t>4454564646</t>
   </si>
   <si>
-    <t>Arrejuntado</t>
-  </si>
-  <si>
     <t>Quima</t>
   </si>
   <si>
@@ -220,9 +199,6 @@
     <t>12/04/1944</t>
   </si>
   <si>
-    <t>jghjghjghjghjgh</t>
-  </si>
-  <si>
     <t>45456</t>
   </si>
   <si>
@@ -262,9 +238,6 @@
     <t>11/02/1980</t>
   </si>
   <si>
-    <t>lkljkljkljkljkljkl</t>
-  </si>
-  <si>
     <t>43434</t>
   </si>
   <si>
@@ -283,9 +256,6 @@
     <t>12/02/1967</t>
   </si>
   <si>
-    <t>fghfghfghfghfgh</t>
-  </si>
-  <si>
     <t>12121</t>
   </si>
   <si>
@@ -301,9 +271,6 @@
     <t>12/12/1970</t>
   </si>
   <si>
-    <t>dfgdfgdfgdfgdfgd</t>
-  </si>
-  <si>
     <t>12111</t>
   </si>
   <si>
@@ -316,9 +283,6 @@
     <t>12/01/1969</t>
   </si>
   <si>
-    <t>sfsdfsdfsdfsdf</t>
-  </si>
-  <si>
     <t>La Beguda Alta</t>
   </si>
   <si>
@@ -340,9 +304,6 @@
     <t>31/01/1966</t>
   </si>
   <si>
-    <t>xcvxcvxcvxcv</t>
-  </si>
-  <si>
     <t>21545</t>
   </si>
   <si>
@@ -361,9 +322,6 @@
     <t>25/09/1977</t>
   </si>
   <si>
-    <t>asdasdasdasdas</t>
-  </si>
-  <si>
     <t>08635</t>
   </si>
   <si>
@@ -371,6 +329,51 @@
   </si>
   <si>
     <t>Moroso</t>
+  </si>
+  <si>
+    <t>Conviviente</t>
+  </si>
+  <si>
+    <t>120 Pheasant Drive Venice, FL 34293</t>
+  </si>
+  <si>
+    <t>593 SW. Center Dr. Cumberland, RI 02864</t>
+  </si>
+  <si>
+    <t>56 Warren St. Londonderry, NH 03053</t>
+  </si>
+  <si>
+    <t>8398 Prairie Rd. South Richmond Hill, NY 11419</t>
+  </si>
+  <si>
+    <t>45 East Orange Ave. Oak Creek, WI 53154</t>
+  </si>
+  <si>
+    <t>310 Lower River Street Revere, MA 02151</t>
+  </si>
+  <si>
+    <t>793 Cypress Street Loveland, OH 45140</t>
+  </si>
+  <si>
+    <t>44 Peg Shop St. Pottstown, PA 19464</t>
+  </si>
+  <si>
+    <t>7276 Hillcrest Rd. Staten Island, NY 10301</t>
+  </si>
+  <si>
+    <t>86 Court Lane South Portland, ME 04106</t>
+  </si>
+  <si>
+    <t>343 Indian Spring StreetArlington, MA 02474</t>
+  </si>
+  <si>
+    <t>7109 SW. Ann Circle Chevy Chase, MD 20815</t>
+  </si>
+  <si>
+    <t>581 Garfield St. Aiken, SC 29803</t>
+  </si>
+  <si>
+    <t>8463 W. Westport Road Minneapolis, MN 55406</t>
   </si>
 </sst>
 </file>
@@ -894,9 +897,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -940,7 +941,7 @@
         <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
@@ -960,19 +961,19 @@
         <v>13</v>
       </c>
       <c r="F2" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>17</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>18</v>
       </c>
       <c r="K2" s="5" t="b">
         <v>1</v>
@@ -983,31 +984,31 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="F3" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="H3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="I3" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="J3" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>27</v>
       </c>
       <c r="K3" s="5" t="b">
         <v>0</v>
@@ -1018,31 +1019,31 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="E4" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="F4" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="H4" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="I4" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="J4" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>36</v>
       </c>
       <c r="K4" s="5" t="b">
         <v>1</v>
@@ -1053,31 +1054,31 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="F5" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G5" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="H5" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="I5" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="J5" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>45</v>
       </c>
       <c r="K5" s="5" t="b">
         <v>0</v>
@@ -1088,31 +1089,31 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="I6" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="J6" s="3" t="s">
         <v>48</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>53</v>
       </c>
       <c r="K6" s="5" t="b">
         <v>1</v>
@@ -1123,31 +1124,31 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I7" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>60</v>
-      </c>
       <c r="J7" s="3" t="s">
-        <v>61</v>
+        <v>103</v>
       </c>
       <c r="K7" s="5" t="b">
         <v>0</v>
@@ -1158,31 +1159,31 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>66</v>
+        <v>110</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K8" s="5" t="b">
         <v>1</v>
@@ -1193,31 +1194,31 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C9" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>71</v>
-      </c>
       <c r="F9" s="3" t="s">
-        <v>72</v>
+        <v>111</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="K9" s="5" t="b">
         <v>1</v>
@@ -1228,31 +1229,31 @@
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>80</v>
+        <v>112</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>61</v>
+        <v>103</v>
       </c>
       <c r="K10" s="5" t="b">
         <v>0</v>
@@ -1263,31 +1264,31 @@
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>87</v>
+        <v>113</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K11" s="5" t="b">
         <v>1</v>
@@ -1298,31 +1299,31 @@
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="K12" s="5" t="b">
         <v>0</v>
@@ -1333,31 +1334,31 @@
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>61</v>
+        <v>103</v>
       </c>
       <c r="K13" s="5" t="b">
         <v>1</v>
@@ -1368,31 +1369,31 @@
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="K14" s="5" t="b">
         <v>1</v>
@@ -1403,31 +1404,31 @@
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="K15" s="5" t="b">
         <v>1</v>
